--- a/docker commands.xlsx
+++ b/docker commands.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9A73A0-1E3D-4841-B900-BC62AB83B48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3D0134-E4C8-5141-AEEE-FBA1BA26244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9BCD8142-210E-4644-8B70-0032EEA290A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{9BCD8142-210E-4644-8B70-0032EEA290A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="docs old" sheetId="1" r:id="rId1"/>
+    <sheet name="docs new" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>docker run hello-word</t>
   </si>
@@ -230,13 +231,49 @@
   </si>
   <si>
     <t>docker logout</t>
+  </si>
+  <si>
+    <t>docker run &lt;image name&gt;</t>
+  </si>
+  <si>
+    <t>Will create  a new container and run it from the image. (if image is already there then it will directly run it. Else will go to the docker hub donwload the image then run it.</t>
+  </si>
+  <si>
+    <t>docker run -it &lt;image name&gt;</t>
+  </si>
+  <si>
+    <t>will create and run new container as well as will provide a interactive shell also. To communicate with container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dockerfile </t>
+  </si>
+  <si>
+    <t>Removing containers &amp; images</t>
+  </si>
+  <si>
+    <t>Sharing docker images</t>
+  </si>
+  <si>
+    <t>To pull the public images</t>
+  </si>
+  <si>
+    <t>Volumes</t>
+  </si>
+  <si>
+    <t>docker volume ls</t>
+  </si>
+  <si>
+    <t>To see where ananymous volume names</t>
+  </si>
+  <si>
+    <t>Anonymous Volume &amp; Named Volumes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,6 +283,22 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -278,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +345,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -308,6 +380,665 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60158</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8990263</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2179052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544785D7-364C-2B19-09C9-2C162F6D283D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981158" y="1102895"/>
+          <a:ext cx="8930105" cy="2112210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>FROM node:14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>                                                           # This is a base image on top of that this image will created</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>WORKDIR. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> /app     # Whatever commands will be mentioned in this file will run this /app folder</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>COPY package.json /app</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>RUN npm install</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>       </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>COPY . /app                 # Here </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> "." is explaining that. all the files from current path of your local system will copied to your "/app" docker container folder.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>CMD ["node", "server.js"]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>                </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>240632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2820737</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1637631</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81184EEF-38B8-6293-05F5-EE95DB972786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1276685"/>
+          <a:ext cx="2820737" cy="1396999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>docker file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> creates customized docker images. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>120315</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>20052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8468895</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1664367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892A6C26-F3AD-B003-004B-5A8B96E0CEE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3041315" y="3756526"/>
+          <a:ext cx="8348580" cy="1644315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>1) Create a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> docker hub account</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>2) In repositories images could be push &amp; pull.Here we can create repositories just like github.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>3) make sure you are either logged in or use this command      =&gt; docker login</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>4) docker push &lt;image_name&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33422</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>20052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2827422</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1617579</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E953ED-4E46-54F1-6ABB-BAE7E6EB1F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33422" y="3756526"/>
+          <a:ext cx="2794000" cy="1597527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t> Make sure either</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> you create a image with this pattaern   shashank47/redis (&lt;dockerhub username/image_name&gt;).  or we can rename the image also.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>docker tag  &lt;image name/tag&gt;  &gt;new image_name&gt;. (make sure new image name must have your docker user name first)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2920999</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8723312</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C349E1F-7C9B-8BF0-641A-8998B9BBA012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2920999" y="5873749"/>
+          <a:ext cx="8723313" cy="1095376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Volumes are folders</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> on your host machine which are connected to containers to store the data. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Here we connect folder inside the container to folder outside to machine</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Biggest advantage of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> volume is that when you delete a container. Your data is machine folder remains there which you can connect to the new container.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8826500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1746250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B52FC88-B7CE-5B62-267D-CEE5D4EAF2DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2992438" y="7405688"/>
+          <a:ext cx="8755062" cy="1682750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Anonymous</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> Volume </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>: These are created by docker itself.  but whenever docker det deleted this volumn also get deleted. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>Named Volume:  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>This volumne even when we deleted the container. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>for named  volume we need to add this tag while creating the container ( -v name-of-hostmachine_path : name_of_container_path)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Ex. docker run -p 5555:5432 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" u="sng" baseline="0"/>
+            <a:t>-v feedback: app/feedback  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>image_name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Note: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" u="sng" baseline="0"/>
+            <a:t>if in case there is already a data there in volume folder (feedback)  then that will autometically mapped with container</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" u="sng" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,24 +1338,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C912A68-F1FB-ED4A-A9B5-13B9C7D63F3B}">
-  <dimension ref="A1:B45"/>
+  <sheetPr>
+    <tabColor theme="3" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A25" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="137.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="137.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -632,7 +1365,7 @@
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -640,7 +1373,7 @@
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -664,236 +1397,316 @@
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:2" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="40" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF25694-FDC3-994C-BD1B-AD03A1C76BAA}">
+  <dimension ref="A3:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="119.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docker commands.xlsx
+++ b/docker commands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3D0134-E4C8-5141-AEEE-FBA1BA26244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21223C98-0E7F-2143-8667-729B09C9FB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{9BCD8142-210E-4644-8B70-0032EEA290A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{9BCD8142-210E-4644-8B70-0032EEA290A4}"/>
   </bookViews>
   <sheets>
     <sheet name="docs old" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>docker run hello-word</t>
   </si>
@@ -99,12 +99,6 @@
   </si>
   <si>
     <t>to exit out from a container</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> docker run -it sh</t>
-  </si>
-  <si>
-    <t>To create and start a container with starting sh command.</t>
   </si>
   <si>
     <t>docker build .</t>
@@ -417,7 +411,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -1341,10 +1338,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1363,18 +1360,18 @@
     </row>
     <row r="2" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="3" customFormat="1" ht="40" x14ac:dyDescent="0.25">
@@ -1382,15 +1379,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1455,7 +1452,7 @@
     </row>
     <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
@@ -1484,74 +1481,74 @@
     </row>
     <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
+      <c r="A28" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="40" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.25">
@@ -1570,7 +1567,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -1578,41 +1575,41 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="40" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>45</v>
+    <row r="38" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" x14ac:dyDescent="0.25">
@@ -1621,14 +1618,6 @@
       </c>
       <c r="B45" s="4" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1640,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF25694-FDC3-994C-BD1B-AD03A1C76BAA}">
   <dimension ref="A3:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A8" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1652,28 +1641,28 @@
   <sheetData>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="133" customHeight="1" x14ac:dyDescent="0.2">
@@ -1681,28 +1670,28 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
